--- a/conf/context.xlsx
+++ b/conf/context.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="context" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,2800 +22,2800 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5348" uniqueCount="932">
   <si>
-    <t>#   ******************************************************************************</t>
-  </si>
-  <si>
-    <t>#   * Copyright  2017  Department of Biomedical Informatics, University of Utah</t>
-  </si>
-  <si>
-    <t>#   * &lt;p&gt;</t>
-  </si>
-  <si>
-    <t>#   * Licensed under the Apache License, Version 2.0 (the "License");</t>
-  </si>
-  <si>
-    <t>#   * you may not use this file except in compliance with the License.</t>
-  </si>
-  <si>
-    <t>#   * You may obtain a copy of the License at</t>
-  </si>
-  <si>
-    <t>#   * http://www.apache.org/licenses/LICENSE-2.0</t>
-  </si>
-  <si>
-    <t>#   * Unless required by applicable law or agreed to in writing, software</t>
-  </si>
-  <si>
-    <t>#   * distributed under the License is distributed on an "AS IS" BASIS,</t>
-  </si>
-  <si>
-    <t>#   * WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied.</t>
-  </si>
-  <si>
-    <t>#   * See the License for the specific language governing permissions and</t>
-  </si>
-  <si>
-    <t>#   * limitations under the License.</t>
-  </si>
-  <si>
-    <t>#   Special thanks to Olga Patterson and Guy Divita for contributing rules as part of this rule set</t>
-  </si>
-  <si>
-    <t>#Define which features will be assigned values in an annotation type ("Concept" in this case)</t>
-  </si>
-  <si>
-    <t>@CONCEPT_FEATURES</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>Negation</t>
-  </si>
-  <si>
-    <t>Certainty</t>
-  </si>
-  <si>
-    <t>Temporality</t>
-  </si>
-  <si>
-    <t>Experiencer</t>
-  </si>
-  <si>
-    <t>#Define the values that a feature can have, the 1st value is the default value</t>
-  </si>
-  <si>
-    <t>#The following definitions will be used as an index for FastContext to find the corresponding Feature to assign the modifier</t>
-  </si>
-  <si>
-    <t>#value, once a modifier value is available.</t>
-  </si>
-  <si>
-    <t>#In this case the "Negation" feature has two values: "affirm" and "negated", "affirm" is the default value.</t>
-  </si>
-  <si>
-    <t>@FEATURE_VALUES</t>
-  </si>
-  <si>
-    <t>affirm</t>
-  </si>
-  <si>
-    <t>negated</t>
-  </si>
-  <si>
-    <t>certain</t>
-  </si>
-  <si>
-    <t>uncertain</t>
-  </si>
-  <si>
-    <t>present</t>
-  </si>
-  <si>
-    <t>historical</t>
-  </si>
-  <si>
-    <t>hypothetical</t>
-  </si>
-  <si>
-    <t>patient</t>
-  </si>
-  <si>
-    <t>nonpatient</t>
-  </si>
-  <si>
-    <t>#rule string</t>
-  </si>
-  <si>
-    <t>direction</t>
-  </si>
-  <si>
-    <t>trigger type</t>
-  </si>
-  <si>
-    <t>modifier</t>
-  </si>
-  <si>
-    <t>window size</t>
-  </si>
-  <si>
-    <t>&gt; 0 -month of</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>trigger</t>
-  </si>
-  <si>
-    <t>&gt; 0 -months of</t>
-  </si>
-  <si>
-    <t>&gt; 0 -year of</t>
-  </si>
-  <si>
-    <t>&gt; 0 -years of</t>
-  </si>
-  <si>
-    <t>&gt; 0 month ago</t>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>&gt; 0 month of</t>
-  </si>
-  <si>
-    <t>&gt; 0 months ago</t>
-  </si>
-  <si>
-    <t>&gt; 0 months of</t>
-  </si>
-  <si>
-    <t>&gt; 0 year ago</t>
-  </si>
-  <si>
-    <t>&gt; 0 year of</t>
-  </si>
-  <si>
-    <t>&gt; 0 years ago</t>
-  </si>
-  <si>
-    <t>&gt; 0 years of</t>
-  </si>
-  <si>
-    <t>&gt; 0 yrs ago</t>
-  </si>
-  <si>
-    <t>&gt; 1 -week of</t>
-  </si>
-  <si>
-    <t>&gt; 1 -weeks of</t>
-  </si>
-  <si>
-    <t>&gt; 1 week ago</t>
-  </si>
-  <si>
-    <t>&gt; 1 week of</t>
-  </si>
-  <si>
-    <t>&gt; 1 weeks ago</t>
-  </si>
-  <si>
-    <t>&gt; 1 weeks of</t>
-  </si>
-  <si>
-    <t>&gt; 13 -day of</t>
-  </si>
-  <si>
-    <t>&gt; 13 -days of</t>
-  </si>
-  <si>
-    <t>&gt; 13 day of</t>
-  </si>
-  <si>
-    <t>&gt; 13 days of</t>
-  </si>
-  <si>
-    <t>: no</t>
-  </si>
-  <si>
-    <t>\w+ no</t>
-  </si>
-  <si>
-    <t>absence of a</t>
-  </si>
-  <si>
-    <t>termination</t>
-  </si>
-  <si>
-    <t>absence of</t>
-  </si>
-  <si>
-    <t>adequate to rule her out for</t>
-  </si>
-  <si>
-    <t>adequate to rule her out</t>
-  </si>
-  <si>
-    <t>adequate to rule him out for</t>
-  </si>
-  <si>
-    <t>adequate to rule him out</t>
-  </si>
-  <si>
-    <t>adequate to rule out for</t>
-  </si>
-  <si>
-    <t>adequate to rule out</t>
-  </si>
-  <si>
-    <t>adequate to rule the patient out against</t>
-  </si>
-  <si>
-    <t>adequate to rule the patient out for</t>
-  </si>
-  <si>
-    <t>adequate to rule the patient out</t>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>pseudo</t>
-  </si>
-  <si>
-    <t>although</t>
-  </si>
-  <si>
-    <t>#Shock, resolved unknown etiology, Patient presents with encephalopathy, non focal neurologic exam, CN nerve exam WNL.</t>
-  </si>
-  <si>
-    <t>presents with</t>
-  </si>
-  <si>
-    <t>presented with</t>
-  </si>
-  <si>
-    <t>and \w+ \w+ shown</t>
-  </si>
-  <si>
-    <t>and \w+ \w+ shows</t>
-  </si>
-  <si>
-    <t>and \w+ \w+ show</t>
-  </si>
-  <si>
-    <t>and \w+ shown</t>
-  </si>
-  <si>
-    <t>and \w+ shows</t>
-  </si>
-  <si>
-    <t>and \w+ show</t>
-  </si>
-  <si>
-    <t>and did</t>
-  </si>
-  <si>
-    <t>and he had</t>
-  </si>
-  <si>
-    <t>and he was noted to have</t>
-  </si>
-  <si>
-    <t>and he was</t>
-  </si>
-  <si>
-    <t>and noted to have</t>
-  </si>
-  <si>
-    <t>and she had</t>
-  </si>
-  <si>
-    <t>and she was noted to have</t>
-  </si>
-  <si>
-    <t>and she was</t>
-  </si>
-  <si>
-    <t>and the patient had</t>
-  </si>
-  <si>
-    <t>and the patient was</t>
-  </si>
-  <si>
-    <t>and with only</t>
-  </si>
-  <si>
-    <t>any other</t>
-  </si>
-  <si>
-    <t>#window size</t>
-  </si>
-  <si>
-    <t>#any</t>
-  </si>
-  <si>
-    <t>apart from</t>
-  </si>
-  <si>
-    <t>appears to</t>
-  </si>
-  <si>
-    <t>are negative</t>
-  </si>
-  <si>
-    <t>are no longer</t>
-  </si>
-  <si>
-    <t>are ruled out</t>
-  </si>
-  <si>
-    <t>are stopped</t>
-  </si>
-  <si>
-    <t>as a  for</t>
-  </si>
-  <si>
-    <t>as a cause for</t>
-  </si>
-  <si>
-    <t>as a cause of</t>
-  </si>
-  <si>
-    <t>as a etiology for</t>
-  </si>
-  <si>
-    <t>as a etiology of</t>
-  </si>
-  <si>
-    <t>as a reason for</t>
-  </si>
-  <si>
-    <t>as a reason of</t>
-  </si>
-  <si>
-    <t>as a secondary cause for</t>
-  </si>
-  <si>
-    <t>as a secondary cause of</t>
-  </si>
-  <si>
-    <t>as a secondary etiology for</t>
-  </si>
-  <si>
-    <t>as a secondary etiology of</t>
-  </si>
-  <si>
-    <t>as a secondary origin for</t>
-  </si>
-  <si>
-    <t>as a secondary origin of</t>
-  </si>
-  <si>
-    <t>as a secondary reason for</t>
-  </si>
-  <si>
-    <t>as a secondary reason of</t>
-  </si>
-  <si>
-    <t>as a secondary source for</t>
-  </si>
-  <si>
-    <t>as a secondary source of</t>
-  </si>
-  <si>
-    <t>as a source for</t>
-  </si>
-  <si>
-    <t>as a source of</t>
-  </si>
-  <si>
-    <t>as an cause for</t>
-  </si>
-  <si>
-    <t>as an cause of</t>
-  </si>
-  <si>
-    <t>as an etiology for</t>
-  </si>
-  <si>
-    <t>as an etiology of</t>
-  </si>
-  <si>
-    <t>as an origin for</t>
-  </si>
-  <si>
-    <t>as an origin of</t>
-  </si>
-  <si>
-    <t>as an reason for</t>
-  </si>
-  <si>
-    <t>as an reason of</t>
-  </si>
-  <si>
-    <t>as an secondary cause for</t>
-  </si>
-  <si>
-    <t>as an secondary cause of</t>
-  </si>
-  <si>
-    <t>as an secondary etiology for</t>
-  </si>
-  <si>
-    <t>as an secondary etiology of</t>
-  </si>
-  <si>
-    <t>as an secondary origin for</t>
-  </si>
-  <si>
-    <t>as an secondary origin of</t>
-  </si>
-  <si>
-    <t>as an secondary reason for</t>
-  </si>
-  <si>
-    <t>as an secondary reason of</t>
-  </si>
-  <si>
-    <t>as an secondary source for</t>
-  </si>
-  <si>
-    <t>as an secondary source of</t>
-  </si>
-  <si>
-    <t>as an source for</t>
-  </si>
-  <si>
-    <t>as an source of</t>
-  </si>
-  <si>
-    <t>as has</t>
-  </si>
-  <si>
-    <t>as needed</t>
-  </si>
-  <si>
-    <t>conditional</t>
-  </si>
-  <si>
-    <t>as the cause for</t>
-  </si>
-  <si>
-    <t>as the cause of</t>
-  </si>
-  <si>
-    <t>as the etiology for</t>
-  </si>
-  <si>
-    <t>as the etiology of</t>
-  </si>
-  <si>
-    <t>as the origin for</t>
-  </si>
-  <si>
-    <t>as the origin of</t>
-  </si>
-  <si>
-    <t>as the reason for</t>
-  </si>
-  <si>
-    <t>as the reason of</t>
-  </si>
-  <si>
-    <t>as the secondary cause for</t>
-  </si>
-  <si>
-    <t>as the secondary cause of</t>
-  </si>
-  <si>
-    <t>as the secondary etiology for</t>
-  </si>
-  <si>
-    <t>as the secondary etiology of</t>
-  </si>
-  <si>
-    <t>as the secondary origin for</t>
-  </si>
-  <si>
-    <t>as the secondary origin of</t>
-  </si>
-  <si>
-    <t>as the secondary reason for</t>
-  </si>
-  <si>
-    <t>as the secondary reason of</t>
-  </si>
-  <si>
-    <t>as the secondary source for</t>
-  </si>
-  <si>
-    <t>as the secondary source of</t>
-  </si>
-  <si>
-    <t>as the source for</t>
-  </si>
-  <si>
-    <t>as the source of</t>
-  </si>
-  <si>
-    <t>as well as any</t>
-  </si>
-  <si>
-    <t>aside from</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>at that time</t>
-  </si>
-  <si>
-    <t>at this time</t>
-  </si>
-  <si>
-    <t>attempted</t>
-  </si>
-  <si>
-    <t>attempt</t>
-  </si>
-  <si>
-    <t>aunt's</t>
-  </si>
-  <si>
-    <t>aunt</t>
-  </si>
-  <si>
-    <t>be ruled out for</t>
-  </si>
-  <si>
-    <t>be ruled out</t>
-  </si>
-  <si>
-    <t>be stopped</t>
-  </si>
-  <si>
-    <t>because</t>
-  </si>
-  <si>
-    <t>being ruled out</t>
-  </si>
-  <si>
-    <t>beyond</t>
-  </si>
-  <si>
-    <t>biopsy of</t>
-  </si>
-  <si>
-    <t>borderline</t>
-  </si>
-  <si>
-    <t>brother's</t>
-  </si>
-  <si>
-    <t>brothers</t>
-  </si>
-  <si>
-    <t>brother</t>
-  </si>
-  <si>
-    <t>but</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>by \w+ family</t>
-  </si>
-  <si>
-    <t>by family</t>
-  </si>
-  <si>
-    <t>by the</t>
-  </si>
-  <si>
-    <t>c w</t>
-  </si>
-  <si>
-    <t>can be ruled out for</t>
-  </si>
-  <si>
-    <t>can be ruled out</t>
-  </si>
-  <si>
-    <t>can rule her out against</t>
-  </si>
-  <si>
-    <t>can rule her out for</t>
-  </si>
-  <si>
-    <t>can rule her out</t>
-  </si>
-  <si>
-    <t>can rule him out against</t>
-  </si>
-  <si>
-    <t>can rule him out for</t>
-  </si>
-  <si>
-    <t>can rule him out</t>
-  </si>
-  <si>
-    <t>can rule out against</t>
-  </si>
-  <si>
-    <t>can rule out for</t>
-  </si>
-  <si>
-    <t>can rule out</t>
-  </si>
-  <si>
-    <t>can rule the patient out</t>
-  </si>
-  <si>
-    <t>can rule the patinet out against</t>
-  </si>
-  <si>
-    <t>can rule the patinet out for</t>
-  </si>
-  <si>
-    <t>cannot be completely excluded</t>
-  </si>
-  <si>
-    <t>cannot be excluded</t>
-  </si>
-  <si>
-    <t>cannot be fully excluded</t>
-  </si>
-  <si>
-    <t>cannot see</t>
-  </si>
-  <si>
-    <t>cannot</t>
-  </si>
-  <si>
-    <t>cause for</t>
-  </si>
-  <si>
-    <t>cause of</t>
-  </si>
-  <si>
-    <t>causes for</t>
-  </si>
-  <si>
-    <t>causes of</t>
-  </si>
-  <si>
-    <t>checked for</t>
-  </si>
-  <si>
-    <t>clear of</t>
-  </si>
-  <si>
-    <t>come back for</t>
-  </si>
-  <si>
-    <t>come back to</t>
-  </si>
-  <si>
-    <t>complains</t>
-  </si>
-  <si>
-    <t>concern for</t>
-  </si>
-  <si>
-    <t>concerned about</t>
-  </si>
-  <si>
-    <t>concerned for</t>
-  </si>
-  <si>
-    <t>concerning for</t>
-  </si>
-  <si>
-    <t>consistent with</t>
-  </si>
-  <si>
-    <t>could be either</t>
-  </si>
-  <si>
-    <t>could be</t>
-  </si>
-  <si>
-    <t>could be ruled out</t>
-  </si>
-  <si>
-    <t>could be ruled out for</t>
-  </si>
-  <si>
-    <t>currently</t>
-  </si>
-  <si>
-    <t>dad called</t>
-  </si>
-  <si>
-    <t>dad's</t>
-  </si>
-  <si>
-    <t>dad</t>
-  </si>
-  <si>
-    <t>daughter called</t>
-  </si>
-  <si>
-    <t>daughter reported</t>
-  </si>
-  <si>
-    <t>daughter reports</t>
-  </si>
-  <si>
-    <t>daughters</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>decided</t>
-  </si>
-  <si>
-    <t>decides</t>
-  </si>
-  <si>
-    <t>decide</t>
-  </si>
-  <si>
-    <t>declined</t>
-  </si>
-  <si>
-    <t>declines</t>
-  </si>
-  <si>
-    <t>denied active</t>
-  </si>
-  <si>
-    <t>denied any abnormal</t>
-  </si>
-  <si>
-    <t>denied any change in the</t>
-  </si>
-  <si>
-    <t>denied any changes in the</t>
-  </si>
-  <si>
-    <t>denied any current</t>
-  </si>
-  <si>
-    <t>denied any high risk</t>
-  </si>
-  <si>
-    <t>denied any high-risk</t>
-  </si>
-  <si>
-    <t>denied any history of</t>
-  </si>
-  <si>
-    <t>denied any other</t>
-  </si>
-  <si>
-    <t>denied any problems of</t>
-  </si>
-  <si>
-    <t>denied any problems</t>
-  </si>
-  <si>
-    <t>denied any recent</t>
-  </si>
-  <si>
-    <t>denied any significant</t>
-  </si>
-  <si>
-    <t>denied any symptom of</t>
-  </si>
-  <si>
-    <t>denied any symptoms of</t>
-  </si>
-  <si>
-    <t>denied any</t>
-  </si>
-  <si>
-    <t>denied current</t>
-  </si>
-  <si>
-    <t>denied ever</t>
-  </si>
-  <si>
-    <t>denied other symptoms of</t>
-  </si>
-  <si>
-    <t>denied problems with</t>
-  </si>
-  <si>
-    <t>denied symptoms of</t>
-  </si>
-  <si>
-    <t>denied that there was any current</t>
-  </si>
-  <si>
-    <t>denied that there was any history of</t>
-  </si>
-  <si>
-    <t>denied that there was any</t>
-  </si>
-  <si>
-    <t>denied that there was ever history of</t>
-  </si>
-  <si>
-    <t>denied that there was ever</t>
-  </si>
-  <si>
-    <t>denied that there was history of</t>
-  </si>
-  <si>
-    <t>denied that there was problems of</t>
-  </si>
-  <si>
-    <t>denied that there was problems</t>
-  </si>
-  <si>
-    <t>denied that there were any history of</t>
-  </si>
-  <si>
-    <t>denied that there were any</t>
-  </si>
-  <si>
-    <t>denied that there were ever history of</t>
-  </si>
-  <si>
-    <t>denied that there were ever</t>
-  </si>
-  <si>
-    <t>denied that there were history of</t>
-  </si>
-  <si>
-    <t>denied that there were problems of</t>
-  </si>
-  <si>
-    <t>denied that there were problems</t>
-  </si>
-  <si>
-    <t>denied this</t>
-  </si>
-  <si>
-    <t>denied use of other</t>
-  </si>
-  <si>
-    <t>denied use of</t>
-  </si>
-  <si>
-    <t>denied</t>
-  </si>
-  <si>
-    <t>denies active</t>
-  </si>
-  <si>
-    <t>denies any abnormal</t>
-  </si>
-  <si>
-    <t>denies any change in the</t>
-  </si>
-  <si>
-    <t>denies any changes in the</t>
-  </si>
-  <si>
-    <t>denies any current</t>
-  </si>
-  <si>
-    <t>denies any high risk</t>
-  </si>
-  <si>
-    <t>denies any high-risk</t>
-  </si>
-  <si>
-    <t>denies any history of</t>
-  </si>
-  <si>
-    <t>denies any other</t>
-  </si>
-  <si>
-    <t>denies any problems of</t>
-  </si>
-  <si>
-    <t>denies any problems with</t>
-  </si>
-  <si>
-    <t>denies any problems</t>
-  </si>
-  <si>
-    <t>denies any recent</t>
-  </si>
-  <si>
-    <t>denies any significant</t>
-  </si>
-  <si>
-    <t>denies any symptom of</t>
-  </si>
-  <si>
-    <t>denies any symptoms of</t>
-  </si>
-  <si>
-    <t>denies any undue</t>
-  </si>
-  <si>
-    <t>denies any</t>
-  </si>
-  <si>
-    <t>denies current</t>
-  </si>
-  <si>
-    <t>denies ever</t>
-  </si>
-  <si>
-    <t>denies problems with</t>
-  </si>
-  <si>
-    <t>denies significant</t>
-  </si>
-  <si>
-    <t>denies symptoms of</t>
-  </si>
-  <si>
-    <t>denies there was any current</t>
-  </si>
-  <si>
-    <t>denies there was any history of</t>
-  </si>
-  <si>
-    <t>denies there was any recent</t>
-  </si>
-  <si>
-    <t>denies there was any</t>
-  </si>
-  <si>
-    <t>denies there was ever history of</t>
-  </si>
-  <si>
-    <t>denies there was ever</t>
-  </si>
-  <si>
-    <t>denies there was history of</t>
-  </si>
-  <si>
-    <t>denies there was problems of</t>
-  </si>
-  <si>
-    <t>denies there was problems</t>
-  </si>
-  <si>
-    <t>denies there were any history of</t>
-  </si>
-  <si>
-    <t>denies there were any</t>
-  </si>
-  <si>
-    <t>denies there were ever history of</t>
-  </si>
-  <si>
-    <t>denies there were ever</t>
-  </si>
-  <si>
-    <t>denies there were history of</t>
-  </si>
-  <si>
-    <t>denies there were problems of</t>
-  </si>
-  <si>
-    <t>denies there were problems</t>
-  </si>
-  <si>
-    <t>denies this</t>
-  </si>
-  <si>
-    <t>denies true</t>
-  </si>
-  <si>
-    <t>denies use of other</t>
-  </si>
-  <si>
-    <t>denies use of</t>
-  </si>
-  <si>
-    <t>denies</t>
-  </si>
-  <si>
-    <t>denise</t>
-  </si>
-  <si>
-    <t>denying</t>
-  </si>
-  <si>
-    <t>deny</t>
-  </si>
-  <si>
-    <t>did have</t>
-  </si>
-  <si>
-    <t>did not have any episodes of</t>
-  </si>
-  <si>
-    <t>did not have any more episodes of</t>
-  </si>
-  <si>
-    <t>did not have any problems with</t>
-  </si>
-  <si>
-    <t>did not observe a</t>
-  </si>
-  <si>
-    <t>did not rule out</t>
-  </si>
-  <si>
-    <t>did rule her out against</t>
-  </si>
-  <si>
-    <t>did rule her out for</t>
-  </si>
-  <si>
-    <t>did rule her out</t>
-  </si>
-  <si>
-    <t>did rule him out against</t>
-  </si>
-  <si>
-    <t>did rule him out for</t>
-  </si>
-  <si>
-    <t>did rule him out</t>
-  </si>
-  <si>
-    <t>did rule out against</t>
-  </si>
-  <si>
-    <t>did rule out for</t>
-  </si>
-  <si>
-    <t>did rule out</t>
-  </si>
-  <si>
-    <t>did rule the patient out against</t>
-  </si>
-  <si>
-    <t>did rule the patient out for</t>
-  </si>
-  <si>
-    <t>did rule the patient out</t>
-  </si>
-  <si>
-    <t>did show</t>
-  </si>
-  <si>
-    <t>didn't express any</t>
-  </si>
-  <si>
-    <t>didn't expressed any</t>
-  </si>
-  <si>
-    <t>didn't have any problems with</t>
-  </si>
-  <si>
-    <t>didn't report any problems with</t>
-  </si>
-  <si>
-    <t>didn't report any</t>
-  </si>
-  <si>
-    <t>does have</t>
-  </si>
-  <si>
-    <t>differential also includes</t>
-  </si>
-  <si>
-    <t>differential diagnoses also includes</t>
-  </si>
-  <si>
-    <t>differential diagnoses includes</t>
-  </si>
-  <si>
-    <t>differential includes</t>
-  </si>
-  <si>
-    <t>does not appear to have any bizarre</t>
-  </si>
-  <si>
-    <t>does not appear to have any issues of</t>
-  </si>
-  <si>
-    <t>does not appear to have any issues with</t>
-  </si>
-  <si>
-    <t>does not appear to have any</t>
-  </si>
-  <si>
-    <t>does not express</t>
-  </si>
-  <si>
-    <t>does not use</t>
-  </si>
-  <si>
-    <t>does not usually</t>
-  </si>
-  <si>
-    <t>does not</t>
-  </si>
-  <si>
-    <t>doesn't look like</t>
-  </si>
-  <si>
-    <t>doubt</t>
-  </si>
-  <si>
-    <t>due to</t>
-  </si>
-  <si>
-    <t>ecchymoses to</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>emergency department</t>
-  </si>
-  <si>
-    <t>etiology for</t>
-  </si>
-  <si>
-    <t>etiology of</t>
-  </si>
-  <si>
-    <t>exacerbation from</t>
-  </si>
-  <si>
-    <t>exam to assess</t>
-  </si>
-  <si>
-    <t>examination assess</t>
-  </si>
-  <si>
-    <t>examination to assess</t>
-  </si>
-  <si>
-    <t>examinations to assess</t>
-  </si>
-  <si>
-    <t>exams to assess</t>
-  </si>
-  <si>
-    <t>except</t>
-  </si>
-  <si>
-    <t>f/h</t>
-  </si>
-  <si>
-    <t>fails to reveal</t>
-  </si>
-  <si>
-    <t>false negative</t>
-  </si>
-  <si>
-    <t>fam hx</t>
-  </si>
-  <si>
-    <t>family found</t>
-  </si>
-  <si>
-    <t>family history</t>
-  </si>
-  <si>
-    <t>family said</t>
-  </si>
-  <si>
-    <t>family stated</t>
-  </si>
-  <si>
-    <t>family told</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>father called</t>
-  </si>
-  <si>
-    <t>father's</t>
-  </si>
-  <si>
-    <t>father</t>
-  </si>
-  <si>
-    <t>fh</t>
-  </si>
-  <si>
-    <t>final report indication</t>
-  </si>
-  <si>
-    <t>for presumed</t>
-  </si>
-  <si>
-    <t>free air</t>
-  </si>
-  <si>
-    <t>free fluid</t>
-  </si>
-  <si>
-    <t>free of</t>
-  </si>
-  <si>
-    <t>free t</t>
-  </si>
-  <si>
-    <t>free wall</t>
-  </si>
-  <si>
-    <t>free water</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>given \w+ history</t>
-  </si>
-  <si>
-    <t>given her history</t>
-  </si>
-  <si>
-    <t>given his history</t>
-  </si>
-  <si>
-    <t>given patient s history</t>
-  </si>
-  <si>
-    <t>given that</t>
-  </si>
-  <si>
-    <t>given the fact</t>
-  </si>
-  <si>
-    <t>given the history</t>
-  </si>
-  <si>
-    <t>given the severity of</t>
-  </si>
-  <si>
-    <t>gram negative</t>
-  </si>
-  <si>
-    <t>grandfather's</t>
-  </si>
-  <si>
-    <t>grandfather</t>
-  </si>
-  <si>
-    <t>grandmother's</t>
-  </si>
-  <si>
-    <t>grandmother</t>
-  </si>
-  <si>
-    <t>h o</t>
-  </si>
-  <si>
-    <t>had a negative \w+ for</t>
-  </si>
-  <si>
-    <t>has a negative \w+ for</t>
-  </si>
-  <si>
-    <t>has been negative</t>
-  </si>
-  <si>
-    <t>has been ruled out</t>
-  </si>
-  <si>
-    <t>has not had any problems with</t>
-  </si>
-  <si>
-    <t>has not had any problems</t>
-  </si>
-  <si>
-    <t>has not had any</t>
-  </si>
-  <si>
-    <t>have a negative \w+ for</t>
-  </si>
-  <si>
-    <t>have been ruled out</t>
-  </si>
-  <si>
-    <t>he continued to</t>
-  </si>
-  <si>
-    <t>her old</t>
-  </si>
-  <si>
-    <t>his old</t>
-  </si>
-  <si>
-    <t>history and examination</t>
-  </si>
-  <si>
-    <t>history and physical</t>
-  </si>
-  <si>
-    <t>history and</t>
-  </si>
-  <si>
-    <t>history for</t>
-  </si>
-  <si>
-    <t>history of chief complaint</t>
-  </si>
-  <si>
-    <t>history of present illness</t>
-  </si>
-  <si>
-    <t>history physical</t>
-  </si>
-  <si>
-    <t>history taking</t>
-  </si>
-  <si>
-    <t>#history</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>hx</t>
-  </si>
-  <si>
-    <t>if negative</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>in her</t>
-  </si>
-  <si>
-    <t>in his</t>
-  </si>
-  <si>
-    <t>in the past</t>
-  </si>
-  <si>
-    <t>in the setting of</t>
-  </si>
-  <si>
-    <t>inconsistent with</t>
-  </si>
-  <si>
-    <t>indication</t>
-  </si>
-  <si>
-    <t>is negative</t>
-  </si>
-  <si>
-    <t>is neg</t>
-  </si>
-  <si>
-    <t>is no longer</t>
-  </si>
-  <si>
-    <t>is not</t>
-  </si>
-  <si>
-    <t>is ruled out</t>
-  </si>
-  <si>
-    <t>is stopped</t>
-  </si>
-  <si>
-    <t>is to be ruled out for</t>
-  </si>
-  <si>
-    <t>is to be ruled out</t>
-  </si>
-  <si>
-    <t>isn't</t>
-  </si>
-  <si>
-    <t>lack of</t>
-  </si>
-  <si>
-    <t>lacked</t>
-  </si>
-  <si>
-    <t>last &gt; 0 month ago</t>
-  </si>
-  <si>
-    <t>last &gt; 0 months ago</t>
-  </si>
-  <si>
-    <t>last &gt; 0 year ago</t>
-  </si>
-  <si>
-    <t>last &gt; 0 years ago</t>
-  </si>
-  <si>
-    <t>last &gt; 0 yrs ago</t>
-  </si>
-  <si>
-    <t>last &gt; 1 week ago</t>
-  </si>
-  <si>
-    <t>last &gt; 1 weeks ago</t>
-  </si>
-  <si>
-    <t>last april</t>
-  </si>
-  <si>
-    <t>last august</t>
-  </si>
-  <si>
-    <t>last december</t>
-  </si>
-  <si>
-    <t>last fall</t>
-  </si>
-  <si>
-    <t>last february</t>
-  </si>
-  <si>
-    <t>last january</t>
-  </si>
-  <si>
-    <t>last july</t>
-  </si>
-  <si>
-    <t>last june</t>
-  </si>
-  <si>
-    <t>last march</t>
-  </si>
-  <si>
-    <t>last may</t>
-  </si>
-  <si>
-    <t>last november</t>
-  </si>
-  <si>
-    <t>last october</t>
-  </si>
-  <si>
-    <t>last september</t>
-  </si>
-  <si>
-    <t>last spring</t>
-  </si>
-  <si>
-    <t>last summer</t>
-  </si>
-  <si>
-    <t>last winter</t>
-  </si>
-  <si>
-    <t>likely component of</t>
-  </si>
-  <si>
-    <t>likely contributors to</t>
-  </si>
-  <si>
-    <t>likely from</t>
-  </si>
-  <si>
-    <t>likely in setting of</t>
-  </si>
-  <si>
-    <t>likely reflecting</t>
-  </si>
-  <si>
-    <t>likely</t>
-  </si>
-  <si>
-    <t>look for any</t>
-  </si>
-  <si>
-    <t>look for</t>
-  </si>
-  <si>
-    <t>markedly</t>
-  </si>
-  <si>
-    <t>may be \w+ underestimated</t>
-  </si>
-  <si>
-    <t>may be contributing</t>
-  </si>
-  <si>
-    <t>may be due to</t>
-  </si>
-  <si>
-    <t>may be related to</t>
-  </si>
-  <si>
-    <t>may be ruled out for</t>
-  </si>
-  <si>
-    <t>may be ruled out</t>
-  </si>
-  <si>
-    <t>may be underestimated</t>
-  </si>
-  <si>
-    <t>may be unmasking</t>
-  </si>
-  <si>
-    <t>may be</t>
-  </si>
-  <si>
-    <t>may have been preceded by</t>
-  </si>
-  <si>
-    <t>may have</t>
-  </si>
-  <si>
-    <t>may represent</t>
-  </si>
-  <si>
-    <t>might be ruled out for</t>
-  </si>
-  <si>
-    <t>might be ruled out</t>
-  </si>
-  <si>
-    <t>might be</t>
-  </si>
-  <si>
-    <t>mildly</t>
-  </si>
-  <si>
-    <t>mild</t>
-  </si>
-  <si>
-    <t>mom called</t>
-  </si>
-  <si>
-    <t>mom's</t>
-  </si>
-  <si>
-    <t>mom</t>
-  </si>
-  <si>
-    <t>monitor \w+ for</t>
-  </si>
-  <si>
-    <t>monitor the \w+ for</t>
-  </si>
-  <si>
-    <t>mother called</t>
-  </si>
-  <si>
-    <t>mother's</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>must be ruled out for</t>
-  </si>
-  <si>
-    <t>must be ruled out</t>
-  </si>
-  <si>
-    <t>n o</t>
-  </si>
-  <si>
-    <t>neg for</t>
-  </si>
-  <si>
-    <t>neg.</t>
-  </si>
-  <si>
-    <t>negative for</t>
-  </si>
-  <si>
-    <t>neg</t>
-  </si>
-  <si>
-    <t>neighbor called</t>
-  </si>
-  <si>
-    <t>neighbors called</t>
-  </si>
-  <si>
-    <t>neighbors</t>
-  </si>
-  <si>
-    <t>neighbor</t>
-  </si>
-  <si>
-    <t>neighbour called</t>
-  </si>
-  <si>
-    <t>neighbours called</t>
-  </si>
-  <si>
-    <t>neighbours</t>
-  </si>
-  <si>
-    <t>neighbour</t>
-  </si>
-  <si>
-    <t>never any</t>
-  </si>
-  <si>
-    <t>never developed</t>
-  </si>
-  <si>
-    <t>never had</t>
-  </si>
-  <si>
-    <t>nevertheless</t>
-  </si>
-  <si>
-    <t>no \w+ evid of</t>
-  </si>
-  <si>
-    <t>no \w+ evid to suggest</t>
-  </si>
-  <si>
-    <t>no \w+ evid to</t>
-  </si>
-  <si>
-    <t>no \w+ evidence of</t>
-  </si>
-  <si>
-    <t>no \w+ evidence to suggest</t>
-  </si>
-  <si>
-    <t>no \w+ evidence to</t>
-  </si>
-  <si>
-    <t>no \w+ evidence</t>
-  </si>
-  <si>
-    <t>no \w+ evid</t>
-  </si>
-  <si>
-    <t>no \w+ was given</t>
-  </si>
-  <si>
-    <t>no abnormal</t>
-  </si>
-  <si>
-    <t>no acute</t>
-  </si>
-  <si>
-    <t>no additional significant</t>
-  </si>
-  <si>
-    <t>no apparent</t>
-  </si>
-  <si>
-    <t>no cause of</t>
-  </si>
-  <si>
-    <t>no change</t>
-  </si>
-  <si>
-    <t>no complaints of</t>
-  </si>
-  <si>
-    <t>no current</t>
-  </si>
-  <si>
-    <t>no definite change</t>
-  </si>
-  <si>
-    <t>no e/o</t>
-  </si>
-  <si>
-    <t>no e o</t>
-  </si>
-  <si>
-    <t>no evidence of</t>
-  </si>
-  <si>
-    <t>no evidence to suggest</t>
-  </si>
-  <si>
-    <t>no evidence</t>
-  </si>
-  <si>
-    <t>no findings of</t>
-  </si>
-  <si>
-    <t>no findings to indicate</t>
-  </si>
-  <si>
-    <t>no findings to suggest</t>
-  </si>
-  <si>
-    <t>no h o</t>
-  </si>
-  <si>
-    <t>no history of</t>
-  </si>
-  <si>
-    <t>no hx of</t>
-  </si>
-  <si>
-    <t>no increase</t>
-  </si>
-  <si>
-    <t>no indication of</t>
-  </si>
-  <si>
-    <t>no indications of</t>
-  </si>
-  <si>
-    <t>no interval change</t>
-  </si>
-  <si>
-    <t>no known history of</t>
-  </si>
-  <si>
-    <t>no known hx of</t>
-  </si>
-  <si>
-    <t>no longer present</t>
-  </si>
-  <si>
-    <t>no longer</t>
-  </si>
-  <si>
-    <t>no major</t>
-  </si>
-  <si>
-    <t>no mammographic evidence of</t>
-  </si>
-  <si>
-    <t>no mention of</t>
-  </si>
-  <si>
-    <t>no new evidence</t>
-  </si>
-  <si>
-    <t>no new</t>
-  </si>
-  <si>
-    <t>no other evidence</t>
-  </si>
-  <si>
-    <t>no other symptoms of</t>
-  </si>
-  <si>
-    <t>no other</t>
-  </si>
-  <si>
-    <t>no problems with '</t>
-  </si>
-  <si>
-    <t>no radiographic evidence of</t>
-  </si>
-  <si>
-    <t>no recurrent</t>
-  </si>
-  <si>
-    <t>no reported mention</t>
-  </si>
-  <si>
-    <t>no reported</t>
-  </si>
-  <si>
-    <t>no residual</t>
-  </si>
-  <si>
-    <t>no sign of</t>
-  </si>
-  <si>
-    <t>no significant change</t>
-  </si>
-  <si>
-    <t>no significant interval change</t>
-  </si>
-  <si>
-    <t>no significant</t>
-  </si>
-  <si>
-    <t>no signs of</t>
-  </si>
-  <si>
-    <t>no signs or symptoms of</t>
-  </si>
-  <si>
-    <t>no sign</t>
-  </si>
-  <si>
-    <t>no suggestion of</t>
-  </si>
-  <si>
-    <t>no suspicious change</t>
-  </si>
-  <si>
-    <t>no suspicious</t>
-  </si>
-  <si>
-    <t>no sxs of</t>
-  </si>
-  <si>
-    <t>no visable</t>
-  </si>
-  <si>
-    <t>non diagnostic</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>nor all</t>
-  </si>
-  <si>
-    <t>nor any</t>
-  </si>
-  <si>
-    <t>nor</t>
-  </si>
-  <si>
-    <t>not a current</t>
-  </si>
-  <si>
-    <t>not appear</t>
-  </si>
-  <si>
-    <t>not appreciate</t>
-  </si>
-  <si>
-    <t>not associated with</t>
-  </si>
-  <si>
-    <t>not attempted given</t>
-  </si>
-  <si>
-    <t>not been ruled out</t>
-  </si>
-  <si>
-    <t>not cause</t>
-  </si>
-  <si>
-    <t>not certain if</t>
-  </si>
-  <si>
-    <t>not certain whether</t>
-  </si>
-  <si>
-    <t>not complain of</t>
-  </si>
-  <si>
-    <t>not current</t>
-  </si>
-  <si>
-    <t>not demonstrate</t>
-  </si>
-  <si>
-    <t>not drain</t>
-  </si>
-  <si>
-    <t>not exhibit</t>
-  </si>
-  <si>
-    <t>not extend</t>
-  </si>
-  <si>
-    <t>not feel</t>
-  </si>
-  <si>
-    <t>not had</t>
-  </si>
-  <si>
-    <t>not have evidence of</t>
-  </si>
-  <si>
-    <t>not have</t>
-  </si>
-  <si>
-    <t>not in acute</t>
-  </si>
-  <si>
-    <t>not interested</t>
-  </si>
-  <si>
-    <t>not in</t>
-  </si>
-  <si>
-    <t>not know of</t>
-  </si>
-  <si>
-    <t>not known to have</t>
-  </si>
-  <si>
-    <t>not necessarily</t>
-  </si>
-  <si>
-    <t>not only</t>
-  </si>
-  <si>
-    <t>not on</t>
-  </si>
-  <si>
-    <t>not reveal</t>
-  </si>
-  <si>
-    <t>not ruled out</t>
-  </si>
-  <si>
-    <t>not see</t>
-  </si>
-  <si>
-    <t>not solve</t>
-  </si>
-  <si>
-    <t>not to be</t>
-  </si>
-  <si>
-    <t>noted</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>now resolved</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>origin for</t>
-  </si>
-  <si>
-    <t>origin of</t>
-  </si>
-  <si>
-    <t>origins for</t>
-  </si>
-  <si>
-    <t>origins of</t>
-  </si>
-  <si>
-    <t>other possibilities of</t>
-  </si>
-  <si>
-    <t>ought to be ruled out for</t>
-  </si>
-  <si>
-    <t>ought to be ruled out</t>
-  </si>
-  <si>
-    <t>past history</t>
-  </si>
-  <si>
-    <t>past medical history</t>
-  </si>
-  <si>
-    <t>patient continued to</t>
-  </si>
-  <si>
-    <t>patient was not</t>
-  </si>
-  <si>
-    <t>patient's</t>
-  </si>
-  <si>
-    <t>poor history</t>
-  </si>
-  <si>
-    <t>possibility of</t>
-  </si>
-  <si>
-    <t>possible</t>
-  </si>
-  <si>
-    <t>possibly</t>
-  </si>
-  <si>
-    <t>poss</t>
-  </si>
-  <si>
-    <t>presenting</t>
-  </si>
-  <si>
-    <t>presents</t>
-  </si>
-  <si>
-    <t>presumably</t>
-  </si>
-  <si>
-    <t>presumed to</t>
-  </si>
-  <si>
-    <t>prior to</t>
-  </si>
-  <si>
-    <t>prn</t>
-  </si>
-  <si>
-    <t>probable</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>prophylaxis</t>
-  </si>
-  <si>
-    <t>pt</t>
-  </si>
-  <si>
-    <t>question was</t>
-  </si>
-  <si>
-    <t>questioned</t>
-  </si>
-  <si>
-    <t>r o</t>
-  </si>
-  <si>
-    <t>rather than</t>
-  </si>
-  <si>
-    <t>reason for</t>
-  </si>
-  <si>
-    <t>reason of</t>
-  </si>
-  <si>
-    <t>reasons for</t>
-  </si>
-  <si>
-    <t>reasons of</t>
-  </si>
-  <si>
-    <t>reported</t>
-  </si>
-  <si>
-    <t>reports</t>
-  </si>
-  <si>
-    <t>resolved</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>risk of</t>
-  </si>
-  <si>
-    <t>roommate called</t>
-  </si>
-  <si>
-    <t>roommates called</t>
-  </si>
-  <si>
-    <t>roommates</t>
-  </si>
-  <si>
-    <t>roommate</t>
-  </si>
-  <si>
-    <t>ro</t>
-  </si>
-  <si>
-    <t>rule her out for</t>
-  </si>
-  <si>
-    <t>rule her out</t>
-  </si>
-  <si>
-    <t>rule him out for</t>
-  </si>
-  <si>
-    <t>rule him out</t>
-  </si>
-  <si>
-    <t>rule out for</t>
-  </si>
-  <si>
-    <t>rule out</t>
-  </si>
-  <si>
-    <t>rule the patient out</t>
-  </si>
-  <si>
-    <t>rule the patinet out for</t>
-  </si>
-  <si>
-    <t>ruled her out against</t>
-  </si>
-  <si>
-    <t>ruled her out for</t>
-  </si>
-  <si>
-    <t>ruled her out</t>
-  </si>
-  <si>
-    <t>ruled him out against</t>
-  </si>
-  <si>
-    <t>ruled him out for</t>
-  </si>
-  <si>
-    <t>ruled him out</t>
-  </si>
-  <si>
-    <t>ruled out against</t>
-  </si>
-  <si>
-    <t>ruled out for</t>
-  </si>
-  <si>
-    <t>ruled out</t>
-  </si>
-  <si>
-    <t>ruled the patient out against</t>
-  </si>
-  <si>
-    <t>ruled the patient out for</t>
-  </si>
-  <si>
-    <t>ruled the patient out</t>
-  </si>
-  <si>
-    <t>rules her out for</t>
-  </si>
-  <si>
-    <t>rules her out</t>
-  </si>
-  <si>
-    <t>rules him out for</t>
-  </si>
-  <si>
-    <t>rules him out</t>
-  </si>
-  <si>
-    <t>rules out for</t>
-  </si>
-  <si>
-    <t>rules out</t>
-  </si>
-  <si>
-    <t>rules the patient out for</t>
-  </si>
-  <si>
-    <t>rules the patient out</t>
-  </si>
-  <si>
-    <t>s p</t>
-  </si>
-  <si>
-    <t>secondary to</t>
-  </si>
-  <si>
-    <t>secondary</t>
-  </si>
-  <si>
-    <t>she continued to</t>
-  </si>
-  <si>
-    <t>should be ruled out for</t>
-  </si>
-  <si>
-    <t>should be ruled out</t>
-  </si>
-  <si>
-    <t>should he</t>
-  </si>
-  <si>
-    <t>should she</t>
-  </si>
-  <si>
-    <t>should the patient</t>
-  </si>
-  <si>
-    <t>should there</t>
-  </si>
-  <si>
-    <t>show a question of</t>
-  </si>
-  <si>
-    <t>shown a question of</t>
-  </si>
-  <si>
-    <t>since april</t>
-  </si>
-  <si>
-    <t>since august</t>
-  </si>
-  <si>
-    <t>since december</t>
-  </si>
-  <si>
-    <t>since fall</t>
-  </si>
-  <si>
-    <t>since february</t>
-  </si>
-  <si>
-    <t>since january</t>
-  </si>
-  <si>
-    <t>since july</t>
-  </si>
-  <si>
-    <t>since june</t>
-  </si>
-  <si>
-    <t>since march</t>
-  </si>
-  <si>
-    <t>since may</t>
-  </si>
-  <si>
-    <t>since november</t>
-  </si>
-  <si>
-    <t>since october</t>
-  </si>
-  <si>
-    <t>since september</t>
-  </si>
-  <si>
-    <t>since spring</t>
-  </si>
-  <si>
-    <t>since summer</t>
-  </si>
-  <si>
-    <t>since winter</t>
-  </si>
-  <si>
-    <t>sister's</t>
-  </si>
-  <si>
-    <t>sisters</t>
-  </si>
-  <si>
-    <t>sister</t>
-  </si>
-  <si>
-    <t>sister called</t>
-  </si>
-  <si>
-    <t>sister reported</t>
-  </si>
-  <si>
-    <t>sister reports</t>
-  </si>
-  <si>
-    <t>social history</t>
-  </si>
-  <si>
-    <t>son called</t>
-  </si>
-  <si>
-    <t>son reported</t>
-  </si>
-  <si>
-    <t>son reports</t>
-  </si>
-  <si>
-    <t>sons</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>source for</t>
-  </si>
-  <si>
-    <t>source of</t>
-  </si>
-  <si>
-    <t>sources for</t>
-  </si>
-  <si>
-    <t>sources of</t>
-  </si>
-  <si>
-    <t>speaking with family</t>
-  </si>
-  <si>
-    <t>spoke with family</t>
-  </si>
-  <si>
-    <t>states</t>
-  </si>
-  <si>
-    <t>status post</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>stopped taking</t>
-  </si>
-  <si>
-    <t>studies to assess</t>
-  </si>
-  <si>
-    <t>study to assess</t>
-  </si>
-  <si>
-    <t>sudden onset of</t>
-  </si>
-  <si>
-    <t>sufficient to rule her out against</t>
-  </si>
-  <si>
-    <t>sufficient to rule her out for</t>
-  </si>
-  <si>
-    <t>sufficient to rule her out</t>
-  </si>
-  <si>
-    <t>sufficient to rule him out against</t>
-  </si>
-  <si>
-    <t>sufficient to rule him out for</t>
-  </si>
-  <si>
-    <t>sufficient to rule him out</t>
-  </si>
-  <si>
-    <t>sufficient to rule out against</t>
-  </si>
-  <si>
-    <t>sufficient to rule out for</t>
-  </si>
-  <si>
-    <t>sufficient to rule out</t>
-  </si>
-  <si>
-    <t>sufficient to rule the patient out against</t>
-  </si>
-  <si>
-    <t>sufficient to rule the patient out for</t>
-  </si>
-  <si>
-    <t>sufficient to rule the patient out</t>
-  </si>
-  <si>
-    <t>suggestive of</t>
-  </si>
-  <si>
-    <t>suggest</t>
-  </si>
-  <si>
-    <t>suspected</t>
-  </si>
-  <si>
-    <t>suspicion for</t>
-  </si>
-  <si>
-    <t>suspicious for</t>
-  </si>
-  <si>
-    <t>talked with family</t>
-  </si>
-  <si>
-    <t>talking with family</t>
-  </si>
-  <si>
-    <t>the presumed</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>to evaluate for any</t>
-  </si>
-  <si>
-    <t>to exclude</t>
-  </si>
-  <si>
-    <t>to prevent</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>treatment of</t>
-  </si>
-  <si>
-    <t>trigger event for</t>
-  </si>
-  <si>
-    <t>uncle's</t>
-  </si>
-  <si>
-    <t>unclear dose</t>
-  </si>
-  <si>
-    <t>unclear</t>
-  </si>
-  <si>
-    <t>uncle</t>
-  </si>
-  <si>
-    <t>unlikely</t>
-  </si>
-  <si>
-    <t>unremarkable for</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>w/o evidence of</t>
-  </si>
-  <si>
-    <t>w/o evidence</t>
-  </si>
-  <si>
-    <t>w/o</t>
-  </si>
-  <si>
-    <t>w o evidence of</t>
-  </si>
-  <si>
-    <t>w o evidence</t>
-  </si>
-  <si>
-    <t>w o</t>
-  </si>
-  <si>
-    <t>wants to</t>
-  </si>
-  <si>
-    <t>was found negative</t>
-  </si>
-  <si>
-    <t>was found</t>
-  </si>
-  <si>
-    <t>was initially suspected</t>
-  </si>
-  <si>
-    <t>was instructed</t>
-  </si>
-  <si>
-    <t>was negative</t>
-  </si>
-  <si>
-    <t>was noted to be negative</t>
-  </si>
-  <si>
-    <t>was not</t>
-  </si>
-  <si>
-    <t>was ruled out</t>
-  </si>
-  <si>
-    <t>was stopped by</t>
-  </si>
-  <si>
-    <t>was stopped due to</t>
-  </si>
-  <si>
-    <t>was stopped</t>
-  </si>
-  <si>
-    <t>was suspected</t>
-  </si>
-  <si>
-    <t>wasn't</t>
-  </si>
-  <si>
-    <t>were instructed</t>
-  </si>
-  <si>
-    <t>were stopped</t>
-  </si>
-  <si>
-    <t>were totally</t>
-  </si>
-  <si>
-    <t>what must be ruled out is</t>
-  </si>
-  <si>
-    <t>whether or not</t>
-  </si>
-  <si>
-    <t>which</t>
-  </si>
-  <si>
-    <t>while</t>
-  </si>
-  <si>
-    <t>who are not present</t>
-  </si>
-  <si>
-    <t>will be ruled out for</t>
-  </si>
-  <si>
-    <t>will be ruled out</t>
-  </si>
-  <si>
-    <t>with \w+ dad</t>
-  </si>
-  <si>
-    <t>with \w+ daughter</t>
-  </si>
-  <si>
-    <t>with \w+ father</t>
-  </si>
-  <si>
-    <t>with \w+ mom</t>
-  </si>
-  <si>
-    <t>with \w+ mother</t>
-  </si>
-  <si>
-    <t>with \w+ son</t>
-  </si>
-  <si>
-    <t>with a question of</t>
-  </si>
-  <si>
-    <t>with no</t>
-  </si>
-  <si>
-    <t>without \w+ evidence</t>
-  </si>
-  <si>
-    <t>without abnormal</t>
-  </si>
-  <si>
-    <t>without active</t>
-  </si>
-  <si>
-    <t>without additional</t>
-  </si>
-  <si>
-    <t>without any evidence of</t>
-  </si>
-  <si>
-    <t>without any</t>
-  </si>
-  <si>
-    <t>without an</t>
-  </si>
-  <si>
-    <t>without apparent</t>
-  </si>
-  <si>
-    <t>without audible</t>
-  </si>
-  <si>
-    <t>without a</t>
-  </si>
-  <si>
-    <t>without becoming</t>
-  </si>
-  <si>
-    <t>without being</t>
-  </si>
-  <si>
-    <t>without causing</t>
-  </si>
-  <si>
-    <t>without difficulties</t>
-  </si>
-  <si>
-    <t>without difficulty</t>
-  </si>
-  <si>
-    <t>without diff</t>
-  </si>
-  <si>
-    <t>without evidence of</t>
-  </si>
-  <si>
-    <t>without evidence</t>
-  </si>
-  <si>
-    <t>without experiencing</t>
-  </si>
-  <si>
-    <t>without further</t>
-  </si>
-  <si>
-    <t>without gross</t>
-  </si>
-  <si>
-    <t>without having</t>
-  </si>
-  <si>
-    <t>without increased</t>
-  </si>
-  <si>
-    <t>without indication of</t>
-  </si>
-  <si>
-    <t>without left</t>
-  </si>
-  <si>
-    <t>without major</t>
-  </si>
-  <si>
-    <t>without maximally</t>
-  </si>
-  <si>
-    <t>without mention of</t>
-  </si>
-  <si>
-    <t>without much</t>
-  </si>
-  <si>
-    <t>without new</t>
-  </si>
-  <si>
-    <t>without noted</t>
-  </si>
-  <si>
-    <t>without noticed</t>
-  </si>
-  <si>
-    <t>without not</t>
-  </si>
-  <si>
-    <t>without no</t>
-  </si>
-  <si>
-    <t>without obvious</t>
-  </si>
-  <si>
-    <t>without other</t>
-  </si>
-  <si>
-    <t>without painful</t>
-  </si>
-  <si>
-    <t>without paraspinal</t>
-  </si>
-  <si>
-    <t>without peripheral</t>
-  </si>
-  <si>
-    <t>without purulent</t>
-  </si>
-  <si>
-    <t>without reported</t>
-  </si>
-  <si>
-    <t>without right</t>
-  </si>
-  <si>
-    <t>without sign of</t>
-  </si>
-  <si>
-    <t>without significant</t>
-  </si>
-  <si>
-    <t>without signs of</t>
-  </si>
-  <si>
-    <t>without some</t>
-  </si>
-  <si>
-    <t>without success</t>
-  </si>
-  <si>
-    <t>without the</t>
-  </si>
-  <si>
-    <t>without upward</t>
-  </si>
-  <si>
-    <t>without using</t>
-  </si>
-  <si>
-    <t>without visible</t>
-  </si>
-  <si>
-    <t>without vital</t>
-  </si>
-  <si>
-    <t>without which</t>
-  </si>
-  <si>
-    <t>without</t>
-  </si>
-  <si>
-    <t>worried about</t>
-  </si>
-  <si>
-    <t>worrisome for</t>
-  </si>
-  <si>
-    <t>yet</t>
-  </si>
-  <si>
-    <t>given</t>
-  </si>
-  <si>
-    <t>with resolution of</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>## if tokenize include punctuations</t>
-  </si>
-  <si>
-    <t>w / o evidence of</t>
-  </si>
-  <si>
-    <t>w / o evidence</t>
-  </si>
-  <si>
-    <t>w / o</t>
-  </si>
-  <si>
-    <t>f / h</t>
-  </si>
-  <si>
-    <t>h / o</t>
-  </si>
-  <si>
-    <t>no e / o</t>
-  </si>
-  <si>
-    <t>no h / o</t>
-  </si>
-  <si>
-    <t>r / o</t>
-  </si>
-  <si>
-    <t>&gt; 13 - day of</t>
-  </si>
-  <si>
-    <t>&gt; 13 - days of</t>
-  </si>
-  <si>
-    <t>&gt; 0 - month of</t>
-  </si>
-  <si>
-    <t>&gt; 0 - months of</t>
-  </si>
-  <si>
-    <t>&gt; 0 - year of</t>
-  </si>
-  <si>
-    <t>&gt; 0 - years of</t>
-  </si>
-  <si>
-    <t>dont</t>
-  </si>
-  <si>
-    <t>don t</t>
-  </si>
-  <si>
-    <t>high risk for</t>
-  </si>
-  <si>
-    <t>at risk for</t>
-  </si>
-  <si>
-    <t>don ' t</t>
-  </si>
-  <si>
-    <t>monitor for</t>
-  </si>
-  <si>
-    <t>monitored for</t>
+    <t xml:space="preserve">#   ******************************************************************************</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * Copyright  2017  Department of Biomedical Informatics, University of Utah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * &lt;p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * Licensed under the Apache License, Version 2.0 (the "License");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * you may not use this file except in compliance with the License.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * You may obtain a copy of the License at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * http://www.apache.org/licenses/LICENSE-2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * Unless required by applicable law or agreed to in writing, software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * distributed under the License is distributed on an "AS IS" BASIS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * See the License for the specific language governing permissions and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   * limitations under the License.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#   Special thanks to Olga Patterson and Guy Divita for contributing rules as part of this rule set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Define which features will be assigned values in an annotation type ("Concept" in this case)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@CONCEPT_FEATURES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certainty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Define the values that a feature can have, the 1st value is the default value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#The following definitions will be used as an index for FastContext to find the corresponding Feature to assign the modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#value, once a modifier value is available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#In this case the "Negation" feature has two values: "affirm" and "negated", "affirm" is the default value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@FEATURE_VALUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">certain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncertain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypothetical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nonpatient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#rule string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trigger type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">window size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 -month of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 -months of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 -year of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 -years of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 month ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 month of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 months ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 months of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 year ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 year of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 years ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 years of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 yrs ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 1 -week of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 1 -weeks of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 1 week ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 1 week of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 1 weeks ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 1 weeks of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 13 -day of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 13 -days of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 13 day of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 13 days of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w+ no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absence of a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">termination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule the patient out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule the patient out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adequate to rule the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after</t>
+  </si>
+  <si>
+    <t xml:space="preserve">both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">although</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Shock, resolved unknown etiology, Patient presents with encephalopathy, non focal neurologic exam, CN nerve exam WNL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presents with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presented with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and \w+ \w+ shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and \w+ \w+ shows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and \w+ \w+ show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and \w+ shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and \w+ shows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and \w+ show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and did</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and he had</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and he was noted to have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and he was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and noted to have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and she had</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and she was noted to have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and she was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and the patient had</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and the patient was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and with only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#window size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apart from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appears to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are no longer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a  for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary origin for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary origin of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a secondary source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as a source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an origin for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an origin of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary origin for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary origin of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an secondary source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as an source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as has</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the origin for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the origin of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary origin for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary origin of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the secondary source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as the source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as well as any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aside from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at that time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at this time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attempted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attempt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aunt's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because</t>
+  </si>
+  <si>
+    <t xml:space="preserve">being ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beyond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biopsy of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">borderline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brother's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brothers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by \w+ family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule her out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule him out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule the patinet out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can rule the patinet out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannot be completely excluded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannot be excluded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannot be fully excluded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannot see</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cause for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">causes for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">causes of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checked for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clear of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">come back for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">come back to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concern for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concerned about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concerned for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concerning for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consistent with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could be either</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dad called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dad's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daughter called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daughter reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daughter reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daughters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daughter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">declined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">declines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any abnormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any change in the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any changes in the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any high risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any high-risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any problems of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any recent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any symptom of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied other symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was any current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was any history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was ever history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was problems of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there was problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were any history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were ever history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were problems of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied that there were problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied use of other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied use of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any abnormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any change in the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any changes in the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any high risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any high-risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any problems of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any recent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any symptom of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any undue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was any current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was any history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was any recent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was ever history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was problems of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there was problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were any history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were ever history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were problems of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies there were problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies use of other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies use of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did not have any episodes of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did not have any more episodes of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did not have any problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did not observe a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did not rule out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule her out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule him out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule the patient out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule the patient out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did rule the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn't express any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn't expressed any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn't have any problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn't report any problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn't report any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">differential also includes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">differential diagnoses also includes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">differential diagnoses includes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">differential includes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not appear to have any bizarre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not appear to have any issues of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not appear to have any issues with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not appear to have any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not usually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doesn't look like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doubt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">due to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecchymoses to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emergency department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etiology for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etiology of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exacerbation from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exam to assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">examination assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">examination to assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">examinations to assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exams to assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">except</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fails to reveal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fam hx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family said</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family stated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family told</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">father called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">father's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final report indication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for presumed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free fluid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given \w+ history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given her history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given his history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given patient s history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given the fact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given the history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given the severity of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gram negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grandfather's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grandfather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grandmother's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grandmother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">had a negative \w+ for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has a negative \w+ for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has been negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has been ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has not had any problems with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has not had any problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has not had any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a negative \w+ for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have been ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he continued to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">her old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">his old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history and examination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history and physical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history of chief complaint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history of present illness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history physical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history taking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">however</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in his</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the past</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the setting of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inconsistent with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is no longer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is to be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is to be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isn't</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lack of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lacked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last \&gt; 0 month ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last \&gt; 0 months ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last \&gt; 0 year ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last \&gt; 0 years ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last \&gt; 0 yrs ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last \&gt; 1 week ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last \&gt; 1 weeks ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last april</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last august</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last december</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last february</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last january</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last july</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last june</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last march</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last may</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last november</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last october</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last september</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely component of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely contributors to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely in setting of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely reflecting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">likely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">look for any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">look for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markedly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be \w+ underestimated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be contributing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be due to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be related to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be underestimated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be unmasking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may have been preceded by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may represent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">might be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">might be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">might be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mildly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mom called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mom's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monitor \w+ for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monitor the \w+ for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mother called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mother's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">must be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">must be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neg for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbor called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbors called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbour called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbours called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">never any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">never developed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">never had</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nevertheless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evid of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evid to suggest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evid to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evidence to suggest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evidence to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ evid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no \w+ was given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no abnormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no acute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no additional significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no apparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no cause of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no complaints of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no definite change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no e/o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no e o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no evidence to suggest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no findings of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no findings to indicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no findings to suggest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no h o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no hx of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no indication of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no indications of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no interval change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no known history of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no known hx of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no longer present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no longer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no mammographic evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no mention of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no new evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no other evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no other symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no problems with '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no radiographic evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no recurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no reported mention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no residual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no sign of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no significant change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no significant interval change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no signs of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no signs or symptoms of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no suggestion of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no suspicious change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no suspicious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no sxs of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no visable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non diagnostic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nor all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nor any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not a current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not appreciate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not associated with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not attempted given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not been ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not cause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not certain if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not certain whether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not complain of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not demonstrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not drain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not exhibit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not extend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not feel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not had</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not have evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not in acute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not interested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not know of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not known to have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not necessarily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not reveal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not see</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not solve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not to be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now resolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">origin for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">origin of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">origins for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">origins of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other possibilities of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ought to be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ought to be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">past history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">past medical history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient continued to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient was not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patient's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poor history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possibility of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possibly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presenting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presumably</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presumed to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prior to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probably</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prophylaxis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">question was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questioned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rather than</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reason for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reason of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasons for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasons of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">risk of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roommate called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roommates called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roommates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roommate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule the patinet out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled her out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled him out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled the patient out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled the patient out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruled the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules the patient out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rules the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secondary to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">she continued to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should he</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should she</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should the patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show a question of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shown a question of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since april</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since august</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since december</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since february</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since january</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since july</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since june</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since march</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since may</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since november</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since october</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since september</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since summer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">since winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sisters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">social history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sources for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sources of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaking with family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spoke with family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">states</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">still</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stopped taking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studies to assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">study to assess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudden onset of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule her out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule her out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule her out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule him out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule him out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule him out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule the patient out against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule the patient out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufficient to rule the patient out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suggestive of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suggest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suspected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suspicion for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suspicious for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talked with family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talking with family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the presumed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">though</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to evaluate for any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to prevent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trigger event for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncle's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unclear dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uncle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unlikely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unremarkable for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w/o evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w/o evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w/o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w o evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w o evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wants to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was found negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was initially suspected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was instructed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was noted to be negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was stopped by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was stopped due to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was suspected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wasn't</t>
+  </si>
+  <si>
+    <t xml:space="preserve">were instructed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">were stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">were totally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what must be ruled out is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whether or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">which</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while</t>
+  </si>
+  <si>
+    <t xml:space="preserve">who are not present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will be ruled out for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will be ruled out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with \w+ dad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with \w+ daughter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with \w+ father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with \w+ mom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with \w+ mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with \w+ son</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with a question of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without \w+ evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without abnormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without additional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without any evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without apparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without audible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without becoming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without being</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without causing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without difficulties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without difficulty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without experiencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without further</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without gross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without having</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without increased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without indication of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without maximally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without mention of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without much</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without noted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without noticed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without obvious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without painful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without paraspinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without peripheral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without purulent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without sign of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without signs of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without some</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without upward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without using</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without vital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without which</t>
+  </si>
+  <si>
+    <t xml:space="preserve">without</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worried about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worrisome for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with resolution of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## if tokenize include punctuations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w / o evidence of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w / o evidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w / o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f / h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h / o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no e / o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no h / o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r / o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 13 - day of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 13 - days of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 - month of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 - months of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 - year of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\&gt; 0 - years of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high risk for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at risk for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don ' t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monitor for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monitored for</t>
   </si>
 </sst>
 </file>
@@ -2823,7 +2823,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
   <fonts count="4">
@@ -2919,18 +2919,18 @@
   </sheetPr>
   <dimension ref="A1:F1368"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A57" activeCellId="0" sqref="57:57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="3" sqref="A33:A55 A660:A666 A1354:A1361 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="94.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="94.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25686,7 +25686,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
